--- a/QA/testUI.xlsx
+++ b/QA/testUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zork/Desktop/swift/StoreRoom/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14619E6-6CF4-2547-B4A0-FD087FBCF7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2F562-A663-3548-A210-C1F22DFCFD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{1750086F-CB51-6142-916C-E63E7E47E19E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="94">
   <si>
     <t>Проект</t>
   </si>
@@ -307,6 +307,20 @@
   </si>
   <si>
     <t>skipped</t>
+  </si>
+  <si>
+    <t>UI7.1</t>
+  </si>
+  <si>
+    <t>UI Содержимого кладовки</t>
+  </si>
+  <si>
+    <t>Проверка правильности расположения карточек вещей</t>
+  </si>
+  <si>
+    <t>1.Создана кладовка
+2.В кладовке созданы 3 вещи с названием
+3.В кладовке создана 1 вещь без названия</t>
   </si>
 </sst>
 </file>
@@ -450,7 +464,45 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -801,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17FA764-D5CD-D843-B11A-8CB6C6DDA38E}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,25 +1026,25 @@
         <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>86</v>
@@ -1008,25 +1060,25 @@
         <v>15</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>86</v>
@@ -1042,25 +1094,25 @@
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>86</v>
@@ -1076,25 +1128,25 @@
         <v>19</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>86</v>
@@ -1110,25 +1162,25 @@
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>86</v>
@@ -1144,25 +1196,25 @@
         <v>83</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>86</v>
@@ -1182,25 +1234,25 @@
         <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>86</v>
@@ -1216,25 +1268,25 @@
         <v>26</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>86</v>
@@ -1250,25 +1302,25 @@
         <v>76</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>86</v>
@@ -1284,25 +1336,25 @@
         <v>28</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>86</v>
@@ -1318,25 +1370,25 @@
         <v>72</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>86</v>
@@ -1356,25 +1408,25 @@
         <v>31</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>86</v>
@@ -1390,25 +1442,25 @@
         <v>26</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>86</v>
@@ -1424,25 +1476,25 @@
         <v>28</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>86</v>
@@ -1458,25 +1510,25 @@
         <v>35</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>86</v>
@@ -1492,25 +1544,25 @@
         <v>24</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>86</v>
@@ -1530,25 +1582,25 @@
         <v>74</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>86</v>
@@ -1564,25 +1616,25 @@
         <v>15</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>86</v>
@@ -1598,25 +1650,25 @@
         <v>41</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>86</v>
@@ -1632,25 +1684,25 @@
         <v>19</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>86</v>
@@ -1666,25 +1718,25 @@
         <v>21</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>86</v>
@@ -1700,25 +1752,25 @@
         <v>83</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>86</v>
@@ -1738,25 +1790,25 @@
         <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>86</v>
@@ -1772,25 +1824,25 @@
         <v>48</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>86</v>
@@ -1806,25 +1858,25 @@
         <v>78</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>86</v>
@@ -1840,25 +1892,25 @@
         <v>83</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>86</v>
@@ -1878,25 +1930,25 @@
         <v>51</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>86</v>
@@ -1912,25 +1964,25 @@
         <v>52</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>86</v>
@@ -1946,25 +1998,25 @@
         <v>53</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>86</v>
@@ -1980,35 +2032,67 @@
         <v>83</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+    <row r="40" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B41" s="11"/>
@@ -2036,17 +2120,31 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E10:L39">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="skipped">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="skipped">
       <formula>NOT(ISERROR(SEARCH("skipped",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="blocked">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="blocked">
       <formula>NOT(ISERROR(SEARCH("blocked",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:L40">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="skipped">
+      <formula>NOT(ISERROR(SEARCH("skipped",E40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="blocked">
+      <formula>NOT(ISERROR(SEARCH("blocked",E40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",E40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2058,7 +2156,7 @@
           <x14:formula1>
             <xm:f>данные!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E10:L39</xm:sqref>
+          <xm:sqref>E10:L40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
